--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>828.7947621661183</v>
+        <v>946.0917033222111</v>
       </c>
       <c r="R2">
-        <v>7459.152859495064</v>
+        <v>8514.825329899899</v>
       </c>
       <c r="S2">
-        <v>0.006182166743132322</v>
+        <v>0.008864902463402975</v>
       </c>
       <c r="T2">
-        <v>0.007245310512111864</v>
+        <v>0.009714270558561661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>886.9297728144234</v>
+        <v>1147.723839048837</v>
       </c>
       <c r="R3">
-        <v>7982.36795532981</v>
+        <v>10329.51455143953</v>
       </c>
       <c r="S3">
-        <v>0.006615808877286591</v>
+        <v>0.01075420052026947</v>
       </c>
       <c r="T3">
-        <v>0.007753525842371729</v>
+        <v>0.01178458690619587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>445.3564142012875</v>
+        <v>647.9469837906086</v>
       </c>
       <c r="R4">
-        <v>4008.207727811588</v>
+        <v>5831.522854115476</v>
       </c>
       <c r="S4">
-        <v>0.003322013770357318</v>
+        <v>0.006071279129274491</v>
       </c>
       <c r="T4">
-        <v>0.003893298626810441</v>
+        <v>0.006652983305998059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>1014.900113662222</v>
+        <v>706.6350190463293</v>
       </c>
       <c r="R5">
-        <v>6089.400681973329</v>
+        <v>4239.810114277975</v>
       </c>
       <c r="S5">
-        <v>0.007570368463581364</v>
+        <v>0.006621187458967911</v>
       </c>
       <c r="T5">
-        <v>0.005914827005777319</v>
+        <v>0.004837053136298063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>508.8226315685622</v>
+        <v>697.06900032587</v>
       </c>
       <c r="R6">
-        <v>4579.403684117059</v>
+        <v>6273.62100293283</v>
       </c>
       <c r="S6">
-        <v>0.003795422575807431</v>
+        <v>0.006531553628946808</v>
       </c>
       <c r="T6">
-        <v>0.004448119280663614</v>
+        <v>0.007157357836849595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>23833.50504929131</v>
+        <v>21024.51488231202</v>
       </c>
       <c r="R7">
-        <v>214501.5454436218</v>
+        <v>189220.6339408082</v>
       </c>
       <c r="S7">
-        <v>0.1777794805349803</v>
+        <v>0.1970002200818209</v>
       </c>
       <c r="T7">
-        <v>0.2083521187112551</v>
+        <v>0.2158752953990632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>25505.28331464342</v>
+        <v>25505.28331464341</v>
       </c>
       <c r="R8">
         <v>229547.5498317907</v>
       </c>
       <c r="S8">
-        <v>0.1902496510352611</v>
+        <v>0.238985130185387</v>
       </c>
       <c r="T8">
-        <v>0.2229667774818036</v>
+        <v>0.2618828829395547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>12807.03598905368</v>
+        <v>14398.99637193554</v>
       </c>
       <c r="R9">
-        <v>115263.3239014831</v>
+        <v>129590.9673474199</v>
       </c>
       <c r="S9">
-        <v>0.09553056508549343</v>
+        <v>0.1349189491461268</v>
       </c>
       <c r="T9">
-        <v>0.1119589031160976</v>
+        <v>0.1478458652977871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>29185.30387459986</v>
+        <v>15703.19073947386</v>
       </c>
       <c r="R10">
-        <v>175111.8232475992</v>
+        <v>94219.14443684313</v>
       </c>
       <c r="S10">
-        <v>0.217699752988543</v>
+        <v>0.1471392823558444</v>
       </c>
       <c r="T10">
-        <v>0.1700916387785074</v>
+        <v>0.1074913724467973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>14632.12282735488</v>
+        <v>15490.60996929425</v>
       </c>
       <c r="R11">
-        <v>131689.1054461939</v>
+        <v>139415.4897236482</v>
       </c>
       <c r="S11">
-        <v>0.1091442987504906</v>
+        <v>0.1451473953256338</v>
       </c>
       <c r="T11">
-        <v>0.1279137829713956</v>
+        <v>0.1590543240475155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>12.00013491561156</v>
+        <v>6.389756853120999</v>
       </c>
       <c r="R12">
-        <v>108.001214240504</v>
+        <v>57.50781167808899</v>
       </c>
       <c r="S12">
-        <v>8.951170829615502E-05</v>
+        <v>5.987217842506216E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001049049868795073</v>
+        <v>6.560867900719884E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>12.84187282582333</v>
+        <v>7.751549073203331</v>
       </c>
       <c r="R13">
-        <v>115.57685543241</v>
+        <v>69.76394165882999</v>
       </c>
       <c r="S13">
-        <v>9.579042089485017E-05</v>
+        <v>7.263220492572734E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001122634461841501</v>
+        <v>7.959127501133988E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>6.448323879340888</v>
+        <v>4.376133587892888</v>
       </c>
       <c r="R14">
-        <v>58.034914914068</v>
+        <v>39.38520229103599</v>
       </c>
       <c r="S14">
-        <v>4.809949972610594E-05</v>
+        <v>4.10044790449664E-05</v>
       </c>
       <c r="T14">
-        <v>5.637114388414319E-05</v>
+        <v>4.493321897224452E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>14.6947577926115</v>
+        <v>4.772503489620833</v>
       </c>
       <c r="R15">
-        <v>88.16854675566901</v>
+        <v>28.635020937725</v>
       </c>
       <c r="S15">
-        <v>0.0001096115070592819</v>
+        <v>4.471847474528612E-05</v>
       </c>
       <c r="T15">
-        <v>8.564089122175706E-05</v>
+        <v>3.26687078198008E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>7.36725243168878</v>
+        <v>4.707896080569999</v>
       </c>
       <c r="R16">
-        <v>66.30527188519901</v>
+        <v>42.37106472513</v>
       </c>
       <c r="S16">
-        <v>5.495399470480514E-05</v>
+        <v>4.41131017379575E-05</v>
       </c>
       <c r="T16">
-        <v>6.440440254374779E-05</v>
+        <v>4.833968644651925E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>5470.922388927094</v>
+        <v>2371.824769905711</v>
       </c>
       <c r="R17">
-        <v>32825.53433356257</v>
+        <v>14230.94861943426</v>
       </c>
       <c r="S17">
-        <v>0.04080884193655657</v>
+        <v>0.02222405626395869</v>
       </c>
       <c r="T17">
-        <v>0.03188447715881095</v>
+        <v>0.01623559848124321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>5854.674972624744</v>
+        <v>2877.310752127169</v>
       </c>
       <c r="R18">
-        <v>35128.04983574847</v>
+        <v>17263.86451276302</v>
       </c>
       <c r="S18">
-        <v>0.04367133886441626</v>
+        <v>0.02696047231461774</v>
       </c>
       <c r="T18">
-        <v>0.03412098311150131</v>
+        <v>0.0196957476243735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>2939.823571203692</v>
+        <v>1624.384507700164</v>
       </c>
       <c r="R19">
-        <v>17638.94142722215</v>
+        <v>9746.307046200982</v>
       </c>
       <c r="S19">
-        <v>0.02192880595079001</v>
+        <v>0.01522052267582416</v>
       </c>
       <c r="T19">
-        <v>0.01713326032493042</v>
+        <v>0.01111922557719987</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>6699.414629319781</v>
+        <v>1771.513729135912</v>
       </c>
       <c r="R20">
-        <v>26797.65851727912</v>
+        <v>7086.05491654365</v>
       </c>
       <c r="S20">
-        <v>0.04997244216600583</v>
+        <v>0.01659912708907957</v>
       </c>
       <c r="T20">
-        <v>0.02602941119621587</v>
+        <v>0.008084235669569553</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>3358.767760266439</v>
+        <v>1747.53199452087</v>
       </c>
       <c r="R21">
-        <v>20152.60656159863</v>
+        <v>10485.19196712522</v>
       </c>
       <c r="S21">
-        <v>0.02505380498683982</v>
+        <v>0.01637441764757507</v>
       </c>
       <c r="T21">
-        <v>0.01957486257723496</v>
+        <v>0.01196219390073022</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>8.360688179699556</v>
+        <v>7.915044735098</v>
       </c>
       <c r="R22">
-        <v>75.24619361729602</v>
+        <v>71.23540261588199</v>
       </c>
       <c r="S22">
-        <v>6.236425563205752E-05</v>
+        <v>7.416416328747626E-05</v>
       </c>
       <c r="T22">
-        <v>7.308900191230357E-05</v>
+        <v>8.127001406931785E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>8.947140602593334</v>
+        <v>9.601908036726666</v>
       </c>
       <c r="R23">
-        <v>80.52426542334001</v>
+        <v>86.41717233054</v>
       </c>
       <c r="S23">
-        <v>6.673873630054973E-05</v>
+        <v>8.997011379472765E-05</v>
       </c>
       <c r="T23">
-        <v>7.821575958309362E-05</v>
+        <v>9.859037154606943E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>4.492651592336889</v>
+        <v>5.420752919263112</v>
       </c>
       <c r="R24">
-        <v>40.433864331032</v>
+        <v>48.786776273368</v>
       </c>
       <c r="S24">
-        <v>3.351169979650363E-05</v>
+        <v>5.079258779960836E-05</v>
       </c>
       <c r="T24">
-        <v>3.927468813164425E-05</v>
+        <v>5.565915048607167E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>10.238075542001</v>
+        <v>5.911739599341668</v>
       </c>
       <c r="R25">
-        <v>61.42845325200601</v>
+        <v>35.47043759605</v>
       </c>
       <c r="S25">
-        <v>7.636811068160307E-05</v>
+        <v>5.539314503358728E-05</v>
       </c>
       <c r="T25">
-        <v>5.966739473946905E-05</v>
+        <v>4.046699894461112E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>5.132883984691779</v>
+        <v>5.83170986666</v>
       </c>
       <c r="R26">
-        <v>46.19595586222601</v>
+        <v>52.48538879994</v>
       </c>
       <c r="S26">
-        <v>3.828733736635006E-05</v>
+        <v>5.464326447559915E-05</v>
       </c>
       <c r="T26">
-        <v>4.487158943251621E-05</v>
+        <v>5.987876995944356E-05</v>
       </c>
     </row>
   </sheetData>
